--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1327786.085170663</v>
+        <v>1325898.503654262</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>327.7725728859739</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>26.00676234811218</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>155.2114886365811</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>24.08852816170401</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>293.3388833266428</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>66.20748566864556</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>97.64711324990996</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>96.50415529468383</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>72.65793777463487</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>155.5427670360973</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980185831</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>114.4760112588801</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750031</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>26.27275520016807</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>166.4704758913036</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>92.33351065034063</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056517</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404421</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>122.6519788371598</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>188.1607094910705</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>60.34231996838499</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>42.2056982312558</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.215988835715</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752358</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789509</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415277</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1176.081332301712</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>807.1188153613</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>807.1188153613</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>421.3305627630558</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1562.681172365833</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1562.681172365833</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>571.3497027553424</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>571.3497027553424</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2672.817244390239</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2496.639756704409</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2278.005089676471</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990286</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="V5" t="n">
-        <v>2182.212521640141</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.212521640141</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.746763379062</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.746763379062</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4641,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>289.7554128984184</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>120.8192299705115</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>120.8192299705115</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>120.8192299705115</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>120.8192299705115</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>120.8192299705115</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>120.8192299705115</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286581</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286581</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286581</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X7" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864.6405432696254</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>671.2536049084106</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>312.9879063016601</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>312.9879063016601</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>306.0424055524566</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2014.845473570639</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1641.379715309559</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.240383333747</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W10" t="n">
-        <v>625.3202087220412</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5121,19 +5121,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5203,7 +5203,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.063975947119</v>
@@ -5212,7 +5212,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W13" t="n">
-        <v>955.1031435655735</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="X13" t="n">
-        <v>797.9892374685055</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="Y13" t="n">
-        <v>577.1966583249754</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1383.283935952973</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1383.283935952973</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U16" t="n">
-        <v>1383.283935952973</v>
+        <v>869.3083006011509</v>
       </c>
       <c r="V16" t="n">
-        <v>1128.599447747086</v>
+        <v>614.6238123952641</v>
       </c>
       <c r="W16" t="n">
-        <v>839.1822777101256</v>
+        <v>325.2066423583034</v>
       </c>
       <c r="X16" t="n">
-        <v>611.1927268121083</v>
+        <v>97.2170914602861</v>
       </c>
       <c r="Y16" t="n">
-        <v>390.4001476685781</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.785243411008</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555207</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619849</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>271.6683216085053</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>271.6683216085053</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687014</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V19" t="n">
-        <v>1009.867621687014</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="W19" t="n">
-        <v>720.4504516500529</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>492.4609007520355</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>271.6683216085053</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5826,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775516</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M21" t="n">
         <v>1332.091733170013</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>677.7114078547894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>508.7752249268825</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>358.6585855145468</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765188</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.92115703528</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="W22" t="n">
-        <v>898.5039869983195</v>
+        <v>241.9805482336713</v>
       </c>
       <c r="X22" t="n">
-        <v>898.5039869983195</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="Y22" t="n">
-        <v>677.7114078547894</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,22 +5972,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609663</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550795</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181188</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,40 +6236,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,7 +6388,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1308.854947839649</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1019.726309053207</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>765.0418208473204</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>475.6246508103599</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X28" t="n">
-        <v>247.6350999123426</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6488,10 +6488,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>400.2445180358627</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1014.141587792751</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542166</v>
+        <v>439.5324299542194</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076804</v>
+        <v>326.3571123076833</v>
       </c>
       <c r="D31" t="n">
-        <v>326.3571123076804</v>
+        <v>232.0013381767184</v>
       </c>
       <c r="E31" t="n">
-        <v>265.4052739557764</v>
+        <v>139.8491098756961</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557764</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818917</v>
+        <v>902.680428981894</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652451</v>
+        <v>730.4517433652475</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030856</v>
+        <v>565.4200295030882</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6704,7 +6704,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506714</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="38">
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
         <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,40 +7330,40 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859416</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,22 +8769,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>306.1147370139962</v>
       </c>
       <c r="N15" t="n">
-        <v>423.337678916511</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814589</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978208</v>
+        <v>369.089388049373</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>189.0022427662468</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>113.6026921294539</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>188.8856946302403</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>39.88923345256785</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>274.3657496970644</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>32.92248665775651</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>70.16688835293982</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>185.2331835502365</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>83.44479872472317</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338606</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>122.3427178180443</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>120.0525224452874</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,19 +24127,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>54.10045199622854</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>75.26883114644312</v>
       </c>
     </row>
     <row r="23">
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>82.39383318338588</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>33.3868515673187</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>14.45548819888947</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965537</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>30.88838604962719</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437426</v>
+        <v>48.01209316311832</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897914</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571486</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-6.465938895416912e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>952727.6193013648</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="9">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
         <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="F2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="H2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114795</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="K2" t="n">
-        <v>447504.3510797972</v>
+        <v>447504.3510797971</v>
       </c>
       <c r="L2" t="n">
         <v>451572.9734253562</v>
@@ -26347,13 +26347,13 @@
         <v>451572.9734253562</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253563</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253563</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253564</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>2.695895773285884e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086695</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028456</v>
+        <v>44162.60530284571</v>
       </c>
     </row>
     <row r="4">
@@ -26427,31 +26427,31 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563561</v>
+        <v>33210.29213563565</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
@@ -26470,25 +26470,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26500,13 +26500,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378028.9421038207</v>
+        <v>-378028.9421038206</v>
       </c>
       <c r="C6" t="n">
-        <v>211938.9371107239</v>
+        <v>211938.9371107238</v>
       </c>
       <c r="D6" t="n">
-        <v>211938.9371107239</v>
+        <v>211938.9371107238</v>
       </c>
       <c r="E6" t="n">
-        <v>-202061.0663355722</v>
+        <v>-202158.5254615444</v>
       </c>
       <c r="F6" t="n">
-        <v>323098.9701413237</v>
+        <v>323001.5110153519</v>
       </c>
       <c r="G6" t="n">
-        <v>323098.9701413241</v>
+        <v>323001.5110153517</v>
       </c>
       <c r="H6" t="n">
-        <v>323098.9701413241</v>
+        <v>323001.5110153518</v>
       </c>
       <c r="I6" t="n">
-        <v>323098.9701413239</v>
+        <v>323001.5110153519</v>
       </c>
       <c r="J6" t="n">
-        <v>146675.7509487308</v>
+        <v>146578.2918227588</v>
       </c>
       <c r="K6" t="n">
-        <v>273503.2451110932</v>
+        <v>273484.7513731587</v>
       </c>
       <c r="L6" t="n">
-        <v>306050.5039417043</v>
+        <v>306050.5039417045</v>
       </c>
       <c r="M6" t="n">
         <v>181592.3955087341</v>
@@ -26558,7 +26558,7 @@
         <v>316393.4107425713</v>
       </c>
       <c r="O6" t="n">
-        <v>316393.4107425713</v>
+        <v>316393.4107425714</v>
       </c>
       <c r="P6" t="n">
         <v>272230.8054397257</v>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964064</v>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,16 +26747,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26768,13 +26768,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108368</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26969,7 +26969,7 @@
         <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54.96126877750669</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>380.8692833935993</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.18263959690364</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27588,19 +27588,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>69.82361682150315</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>30.3898744131077</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>34.41337514349215</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>68.75813612369267</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2340993700035</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>316.137056770885</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>252.7368134227292</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>10.81525101172488</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>213.8650605619561</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>616.5391140644624</v>
       </c>
       <c r="N15" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330526</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>506.0379672345559</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958064</v>
+        <v>618.3470930053974</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>499.426619816713</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>340.4953046390455</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
@@ -36692,7 +36692,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>264.1781307173932</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36923,13 +36923,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686865</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221117</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,13 +37157,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>395.979109561765</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>373.0838068505807</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37558,13 +37558,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>481.459164628589</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009917</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38108,10 +38108,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>315.2861888988646</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
